--- a/Menu workbook.xlsx
+++ b/Menu workbook.xlsx
@@ -9,15 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19900" tabRatio="500"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="19200" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$D$3</definedName>
+    <definedName name="OLE_LINK33" localSheetId="0">Sheet1!$C$62</definedName>
     <definedName name="OLE_LINK34" localSheetId="0">Sheet1!$F$29</definedName>
     <definedName name="OLE_LINK4" localSheetId="0">Sheet1!$D$21</definedName>
+    <definedName name="OLE_LINK47" localSheetId="0">Sheet1!$D$80</definedName>
+    <definedName name="OLE_LINK5" localSheetId="0">Sheet1!$D$57</definedName>
+    <definedName name="OLE_LINK6" localSheetId="0">Sheet1!$D$88</definedName>
+    <definedName name="OLE_LINK79" localSheetId="0">Sheet1!$C$103</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="220">
   <si>
     <t>Gemüse</t>
   </si>
@@ -450,12 +455,1098 @@
   <si>
     <t>knusprige Nudeln mit gemischten Fleischsorten (Schwein, Rind, Huhn und Ente), Sojasprossen rotem Paprika, Broccoli und Chinakohl.(ohne Beilage)</t>
   </si>
+  <si>
+    <t>Gebratenes gemischtes Gemüse</t>
+  </si>
+  <si>
+    <t>€9,80</t>
+  </si>
+  <si>
+    <t>Gebratene Sojasprossen und Karotten</t>
+  </si>
+  <si>
+    <t>€8,80</t>
+  </si>
+  <si>
+    <t>Gebratene zarte Bambussprossen, Karotten, Schitagen- Pilzen</t>
+  </si>
+  <si>
+    <t>€10,00</t>
+  </si>
+  <si>
+    <t>Gebratenes gemischtes Gemüse mit  Kartoffeln, in Rot Curry  SauceÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€10,00                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gemüse -Gerichte  </t>
+  </si>
+  <si>
+    <t>Bun Bo</t>
+  </si>
+  <si>
+    <t>Rindfleisch, gebraten mit Knoblauch, Fischsauce und Zitronengras, leicht scharf (Reisnudeln und Salat)</t>
+  </si>
+  <si>
+    <t>Ca. MUC Caric</t>
+  </si>
+  <si>
+    <r>
+      <t>Tintenfisch, gebraten mit Chili, Bambussprossen und gr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ünen Bohnen in Curry- Sauce, scharf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve"> (Beilage Reis)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>13,90</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Knusprige ger</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>östete Ente</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit gebratenem vietnamesischen Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">üse (flambiert serviert auf einer Gusseisenplatte) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>(Beilage Reis)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€16,5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Sauer Lady</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>“</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerbrust gebraten nach vietnamesischer Art in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">üß saurer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Sauce(Beilage Reis)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€12,5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Gebratenes Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üse</t>
+    </r>
+  </si>
+  <si>
+    <t>nach vietnamesischer Art</t>
+  </si>
+  <si>
+    <r>
+      <t>€10,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Spezialitäten</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Chop-Suey</t>
+  </si>
+  <si>
+    <r>
+      <t>mit Schweinefleisch (verschiedene Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üsesorten)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>1,00</t>
+    </r>
+  </si>
+  <si>
+    <t>Schweinefleisch</t>
+  </si>
+  <si>
+    <r>
+      <t>€11,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <t>Kung Bao</t>
+  </si>
+  <si>
+    <t>€11,50</t>
+  </si>
+  <si>
+    <t>mit Bambussprossen und Schitagen Pilzen</t>
+  </si>
+  <si>
+    <t>mit Ananas, Paprika, Broccoli, Karotten, Bambussprossen in Barbecue Sauce, leicht scharf</t>
+  </si>
+  <si>
+    <r>
+      <t>Knusprige Schweinew</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ürfel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Ananas in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üß saurer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€11,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Morcheln und Bambussprossen, Karotten Sojabohnen</t>
+  </si>
+  <si>
+    <t>Schweinefleisch Paprika, Champignons Bambussprossen und Karotten, leicht scharf</t>
+  </si>
+  <si>
+    <r>
+      <t>mit Ananas, Bambussprossen, Champignons Karotten, Tomate in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üß sau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>rer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit Champignons, Bambussprossen und Karotten in Curry </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">– Sauce, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>leicht scharf</t>
+    </r>
+  </si>
+  <si>
+    <t>Schweinefleisch – Gerichte</t>
+  </si>
+  <si>
+    <t>Chop- Suey</t>
+  </si>
+  <si>
+    <r>
+      <t>mit Rindfleisch (verschiedene Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üsesorten)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€12,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>50</t>
+    </r>
+  </si>
+  <si>
+    <t>Rindfleisch</t>
+  </si>
+  <si>
+    <t>mit Morcheln, Karotten, Sojabohnen, Bambussprossen</t>
+  </si>
+  <si>
+    <r>
+      <t>€12,8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Ananas, Bambussprossen, Karotten,  in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">üß </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>saurer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>12,50</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Schitage Pilzen, Karotten, Bambussprossen, Sojabohnen</t>
+  </si>
+  <si>
+    <r>
+      <t>€12,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit Curry Sauce </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Champignons, Bambussprossen, leicht scharf</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Ananas, Broccoli, Bambussprossen in Barbecue Sauce</t>
+  </si>
+  <si>
+    <t>Rindfleisch mit Paprika, Karotten, Champignons, Bambussprossen, Cashewkerne, , leicht scharf</t>
+  </si>
+  <si>
+    <t>Chop Suey</t>
+  </si>
+  <si>
+    <r>
+      <t>mit H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerbrust (verschiedene Gemüsesorte)</t>
+    </r>
+  </si>
+  <si>
+    <t>€11,00</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerbrust</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Morcheln, Karotten, Bambussprossen, Sojabohnen</t>
+  </si>
+  <si>
+    <r>
+      <t>Kung Bao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve"> H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerbrust</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Paprika, Karotten, Champign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>on, Bambussprossen, Cashewkerne, leicht scharf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit Annans, Karotten, Bambussprossen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Champignons, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Tomaten in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üß sau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>rer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t>mit Schitagen Pilzen, Karotten, Bambussprossen</t>
+  </si>
+  <si>
+    <t>mit Karotten, Champignons, Bambussprossen in Curry Sauce, leicht scharf</t>
+  </si>
+  <si>
+    <t>mit Paprika, Bambussprossen, Karotten, Broccoli in Barbecue Sauce, leicht scharf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hühnerfleisch- Gerichte </t>
+  </si>
+  <si>
+    <r>
+      <t>Knusprige Ente Gerichte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Morcheln (verschiedenen Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üse)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€14,50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>mit Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne in Kung Bao Sauce, leicht scharf</t>
+  </si>
+  <si>
+    <r>
+      <t>€1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>4,50</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit Ananas, Bambussprossen, Karotten, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">Tomaten, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>Champignon in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üß sau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>rer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Schitagen Pilzen (verschiedene Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üsen)</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Champignon, Karotten, Bambussprossen in Curry Sauce, leicht scharf</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit Ananas, Broccoli, Bambussprosse in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Barbecue Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mit Ananas in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üß sau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>rer Sauce</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€13,9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>€17,90</t>
+  </si>
+  <si>
+    <r>
+      <t>mit Hummerkrabben (mit verschiedenem Gem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>üse)</t>
+    </r>
+  </si>
+  <si>
+    <t>Hummerkrabben, Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne, leicht scharf</t>
+  </si>
+  <si>
+    <t>Hummerkrabben</t>
+  </si>
+  <si>
+    <r>
+      <t>mit Ananas, Karotten, Bambussprossen, Tomaten in s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">üß </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>saure Sauce</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Karotten, Bambussprossen in Curry Sauce</t>
+  </si>
+  <si>
+    <t>Panierte Fischfilet</t>
+  </si>
+  <si>
+    <t>mit Morcheln, Bambussprossen, Karotten, Sojabohnen</t>
+  </si>
+  <si>
+    <t>mit Schitagen- Pilzen, Karotten, Sojabohnen, Bambussprossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeresfrüchte  </t>
+  </si>
+  <si>
+    <r>
+      <t>Knusprige H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ähnchen</t>
+    </r>
+  </si>
+  <si>
+    <t>mit gebratenem  Nudeln</t>
+  </si>
+  <si>
+    <t>mit gebratenen Reis</t>
+  </si>
+  <si>
+    <t>mit Nudeln</t>
+  </si>
+  <si>
+    <t>mit  gebratene Reis</t>
+  </si>
+  <si>
+    <t>13,90</t>
+  </si>
+  <si>
+    <t>Nasik Goren</t>
+  </si>
+  <si>
+    <r>
+      <t>(leicht scharf)( Reis gebraten mit H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerfleisch, Shrimps und Curry)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>€10,5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Reis, gebraten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit verschiedene Fleischsorten (Schwein, Rind, Huhn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>oder nur H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerfleisch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Reis gebraten</t>
+  </si>
+  <si>
+    <t>mit Shrimps</t>
+  </si>
+  <si>
+    <t>mit Hummerkrabben</t>
+  </si>
+  <si>
+    <r>
+      <t>€1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>5,50</t>
+    </r>
+  </si>
+  <si>
+    <t>Bami Goren</t>
+  </si>
+  <si>
+    <r>
+      <t>(leicht scharf) (Nudeln gebraten mit H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerfleisch, Shrimps und Curry)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nudeln gebraten</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mit verschiedenen Fleischsorten (Schwein, Rind, Huhn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>oder nur H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>ühnerfleisch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Nudeln  gebraten</t>
+  </si>
+  <si>
+    <r>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>15,50</t>
+    </r>
+  </si>
+  <si>
+    <t>mit Ei  (nur als Beilage)</t>
+  </si>
+  <si>
+    <t>€4,60</t>
+  </si>
+  <si>
+    <t>mit Ei (nur als Beilage)</t>
+  </si>
+  <si>
+    <r>
+      <t>€4,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reis &amp; Nudeln Gerichte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,6 +1627,47 @@
       <color theme="1"/>
       <name val="Calibri Light"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +1686,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -596,8 +1728,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,8 +1778,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -648,6 +1803,16 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -668,6 +1833,16 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -945,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1167,15 +2342,15 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D12)</f>
+        <f t="shared" ref="A12:A19" si="3">SUBSTITUTE($A$1,"dishName",D12)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Frühlingsrolle mit Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B12" t="str">
-        <f>SUBSTITUTE($A12,"dishDisc",E12)</f>
+        <f t="shared" ref="B12:B19" si="4">SUBSTITUTE($A12,"dishDisc",E12)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Frühlingsrolle mit Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C12" t="str">
-        <f>SUBSTITUTE($B12,"dishPrice",F12)</f>
+        <f t="shared" ref="C12:C19" si="5">SUBSTITUTE($B12,"dishPrice",F12)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Frühlingsrolle mit Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1188,15 +2363,15 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D13)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Krabben Chips_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B13" t="str">
-        <f>SUBSTITUTE($A13,"dishDisc",E13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Krabben Chips_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C13" t="str">
-        <f>SUBSTITUTE($B13,"dishPrice",F13)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Krabben Chips_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1209,15 +2384,15 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D14)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Wan-Tan gebacken_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B14" t="str">
-        <f>SUBSTITUTE($A14,"dishDisc",E14)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Wan-Tan gebacken_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C14" t="str">
-        <f>SUBSTITUTE($B14,"dishPrice",F14)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Wan-Tan gebacken_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,20_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1230,15 +2405,15 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D15)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Herbstrolle(Gemüserolle)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B15" t="str">
-        <f>SUBSTITUTE($A15,"dishDisc",E15)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Herbstrolle(Gemüserolle)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C15" t="str">
-        <f>SUBSTITUTE($B15,"dishPrice",F15)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Herbstrolle(Gemüserolle)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,60_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1251,15 +2426,15 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D16)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebackene Wan- Tan , Currytaschen &amp; Herbstrolle_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B16" t="str">
-        <f>SUBSTITUTE($A16,"dishDisc",E16)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebackene Wan- Tan , Currytaschen &amp; Herbstrolle_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C16" t="str">
-        <f>SUBSTITUTE($B16,"dishPrice",F16)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebackene Wan- Tan , Currytaschen &amp; Herbstrolle_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1272,15 +2447,15 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D17)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Giew Too_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B17" t="str">
-        <f>SUBSTITUTE($A17,"dishDisc",E17)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Giew Too_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (gebackene Currytaschen mit süß sauer Sauce)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C17" t="str">
-        <f>SUBSTITUTE($B17,"dishPrice",F17)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Giew Too_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (gebackene Currytaschen mit süß sauer Sauce)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1296,15 +2471,15 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D18)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bo phong Tom_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B18" t="str">
-        <f>SUBSTITUTE($A18,"dishDisc",E18)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bo phong Tom_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (gebratenes Rindfleisch mit Erdnüssen, Gurken auf Krabben- Chips)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C18" t="str">
-        <f>SUBSTITUTE($B18,"dishPrice",F18)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bo phong Tom_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €5,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (gebratenes Rindfleisch mit Erdnüssen, Gurken auf Krabben- Chips)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1321,15 +2496,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <f>SUBSTITUTE($A$1,"dishName",D19)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Cha gio_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B19" t="str">
-        <f>SUBSTITUTE($A19,"dishDisc",E19)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Cha gio_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (Original, vietnamesische Frühlingsrolle mit Reisnudeln, Fischsauce, Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C19" t="str">
-        <f>SUBSTITUTE($B19,"dishPrice",F19)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Cha gio_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €5,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (Original, vietnamesische Frühlingsrolle mit Reisnudeln, Fischsauce, Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1353,15 +2528,15 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <f t="shared" ref="A21:A75" si="3">SUBSTITUTE($A$1,"dishName",D21)</f>
+        <f t="shared" ref="A21:A75" si="6">SUBSTITUTE($A$1,"dishName",D21)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Yak Nura_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" ref="B21:B75" si="4">SUBSTITUTE($A21,"dishDisc",E21)</f>
+        <f t="shared" ref="B21:B75" si="7">SUBSTITUTE($A21,"dishDisc",E21)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Yak Nura_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gegrilltem Rindfleisch, Salat, leicht scharf)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C75" si="5">SUBSTITUTE($B21,"dishPrice",F21)</f>
+        <f t="shared" ref="C21:C75" si="8">SUBSTITUTE($B21,"dishPrice",F21)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Yak Nura_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €5,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gegrilltem Rindfleisch, Salat, leicht scharf)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1376,15 +2551,15 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1399,15 +2574,15 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €6,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1422,15 +2597,15 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Sojasprossen –Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Sojasprossen –Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit Erdnusssoße)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Sojasprossen –Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit Erdnusssoße)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1445,15 +2620,15 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemischter Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemischter Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemischter Salat_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1465,15 +2640,15 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat in Barbecue Sauce )_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Shrimps_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €6,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (mit gemischten Salat in Barbecue Sauce )_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1488,15 +2663,15 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gail Säte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gail Säte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (Hühnerfleischspieße mit Erdnuss- Sauce, am Tisch grillen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gail Säte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (Hühnerfleischspieße mit Erdnuss- Sauce, am Tisch grillen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1519,15 +2694,15 @@
     </row>
     <row r="29" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Dschingis- Khan Platte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Dschingis- Khan Platte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schwein, Rind, Huhn, Ente, Hummerkrabben und Gemüse nach mongolischer Art, leicht scharf(serviert auf einer Gusseisenplatte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Dschingis- Khan Platte_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schwein, Rind, Huhn, Ente, Hummerkrabben und Gemüse nach mongolischer Art, leicht scharf(serviert auf einer Gusseisenplatte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -1542,15 +2717,15 @@
     </row>
     <row r="30" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrustfilet paniert_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrustfilet paniert_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Gemüse in süß sauer- Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrustfilet paniert_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Gemüse in süß sauer- Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D30" s="10" t="s">
@@ -1565,15 +2740,15 @@
     </row>
     <row r="31" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knuspriges Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knuspriges Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedenem Gemüse in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knuspriges Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedenem Gemüse in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D31" s="10" t="s">
@@ -1588,15 +2763,15 @@
     </row>
     <row r="32" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hähnchen mit verschiedenem Gemüse in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hähnchen mit verschiedenem Gemüse in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -1611,15 +2786,15 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprig, geröstetes Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprig, geröstetes Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Soße_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprig, geröstetes Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Soße_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -1634,15 +2809,15 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  S6 Aromatisch, gewürzte Ente, knusprig geröstet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  S6 Aromatisch, gewürzte Ente, knusprig geröstet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  S6 Aromatisch, gewürzte Ente, knusprig geröstet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -1657,15 +2832,15 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ente a la PALAWAN und knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ente a la PALAWAN und knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ente a la PALAWAN und knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem Gemüse in Soja Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -1680,15 +2855,15 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Feuer- Drachen Topf_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Feuer- Drachen Topf_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Ente und gemischtem Fleisch in Curry -Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Feuer- Drachen Topf_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Ente und gemischtem Fleisch in Curry -Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -1703,15 +2878,15 @@
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Sojasoße in exotischer Mango- Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Sojasoße in exotischer Mango- Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -1726,15 +2901,15 @@
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Takobo-Perle“, gebratenes, gemischtes Fleisch (Schwein, Rind, Huhn und Ente)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Takobo-Perle“, gebratenes, gemischtes Fleisch (Schwein, Rind, Huhn und Ente)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Gemüse(serviert in einer Takobo Schale)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Takobo-Perle“, gebratenes, gemischtes Fleisch (Schwein, Rind, Huhn und Ente)_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Gemüse(serviert in einer Takobo Schale)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D38" s="11" t="s">
@@ -1749,15 +2924,15 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   “Sam – Sein - Takobo“, Fisch, Tintenfisch und Hummerkrabb_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   “Sam – Sein - Takobo“, Fisch, Tintenfisch und Hummerkrabb_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Gemüse und Sellerie (serviert in einer Takobo – Schale)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   “Sam – Sein - Takobo“, Fisch, Tintenfisch und Hummerkrabb_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €16,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Gemüse und Sellerie (serviert in einer Takobo – Schale)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D39" s="11" t="s">
@@ -1772,15 +2947,15 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Chinakohl, Broccoli, Karotten und Gemüse in Hoi – Sin – Sauce ( serviert auf einer Gusseisen platte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €18,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Chinakohl, Broccoli, Karotten und Gemüse in Hoi – Sin – Sauce ( serviert auf einer Gusseisen platte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -1795,15 +2970,15 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Chinakohl, Broccoli und Gemüse in Hoi-Sin-Sauce (serviert auf einer Gusseisenplatte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Chinakohl, Broccoli und Gemüse in Hoi-Sin-Sauce (serviert auf einer Gusseisenplatte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D41" s="10" t="s">
@@ -1818,15 +2993,15 @@
     </row>
     <row r="42" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Plan Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Plan Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebackenes Fischfilet in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Plan Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebackenes Fischfilet in süß sauer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D42" s="10" t="s">
@@ -1841,15 +3016,15 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerfleischmit Kartoffeln, Tomaten, Erdnüssen, Rot Curry und Champignons, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerfleischmit Kartoffeln, Tomaten, Erdnüssen, Rot Curry und Champignons, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -1864,15 +3039,15 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Knusprige Ente mit Kartoffeln, Tomaten, Erdnüssen, Rot Curry undChampignons ,leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Knusprige Ente mit Kartoffeln, Tomaten, Erdnüssen, Rot Curry undChampignons ,leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D44" s="10" t="s">
@@ -1887,15 +3062,15 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerbrust mit Tomaten, Ananas ,Bambussprossen ,Champignons und Zwiebeln in süß sauer – Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pries Wan_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerbrust mit Tomaten, Ananas ,Bambussprossen ,Champignons und Zwiebeln in süß sauer – Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D45" s="10" t="s">
@@ -1910,15 +3085,15 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ging Pad Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ging Pad Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hummerkrabben mit Bambussprossen, Ingwer, Paprikaund Zwiebeln, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ging Pad Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €18,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hummerkrabben mit Bambussprossen, Ingwer, Paprikaund Zwiebeln, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -1933,15 +3108,15 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pfad King_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pfad King_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerbrust mit Zitronengras, Paprika, Blumenkohl, Knoblauch und Chili,leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kai Pfad King_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  gebratene Hühnerbrust mit Zitronengras, Paprika, Blumenkohl, Knoblauch und Chili,leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -1956,15 +3131,15 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Pala Meik Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Pala Meik Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Tintenfisch mit Bambussprossen, Ingwer, lange Bohnen, und Chili, leichtscharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Pala Meik Nam Puig Pako_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Tintenfisch mit Bambussprossen, Ingwer, lange Bohnen, und Chili, leichtscharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D48" s="10" t="s">
@@ -1979,15 +3154,15 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda, Muh, Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda, Muh, Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Ente, Schwein und Huhn mit Kartoffeln, Tomaten, grüne Bohnen, Erdnüsse, Rot Curry, Champignons , leicht scharf(serviert auf einem Vogelnest)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kang Peda, Muh, Gail_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Ente, Schwein und Huhn mit Kartoffeln, Tomaten, grüne Bohnen, Erdnüsse, Rot Curry, Champignons , leicht scharf(serviert auf einem Vogelnest)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -2002,15 +3177,15 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Mai Pad Rada Naab_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Mai Pad Rada Naab_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Nudeln mit gemischten Fleischsorten (Schwein, Rind, Huhn und Ente), Sojasprossen rotem Paprika, Broccoli und Chinakohl.(ohne Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Mai Pad Rada Naab_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  knusprige Nudeln mit gemischten Fleischsorten (Schwein, Rind, Huhn und Ente), Sojasprossen rotem Paprika, Broccoli und Chinakohl.(ohne Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -2023,1563 +3198,1436 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="C51" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €9,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Sojasprossen und Karotten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Sojasprossen und Karotten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene Sojasprossen und Karotten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €8,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene zarte Bambussprossen, Karotten, Schitagen- Pilzen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene zarte Bambussprossen, Karotten, Schitagen- Pilzen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratene zarte Bambussprossen, Karotten, Schitagen- Pilzen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse mit  Kartoffeln, in Rot Curry  SauceÓ_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse mit  Kartoffeln, in Rot Curry  SauceÓ_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gebratenes gemischtes Gemüse mit  Kartoffeln, in Rot Curry  SauceÓ_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,00                              _x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  _x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="C56" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bun Bo_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bun Bo_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Rindfleisch, gebraten mit Knoblauch, Fischsauce und Zitronengras, leicht scharf (Reisnudeln und Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bun Bo_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Rindfleisch, gebraten mit Knoblauch, Fischsauce und Zitronengras, leicht scharf (Reisnudeln und Salat)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ca. MUC Caric_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ca. MUC Caric_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Tintenfisch, gebraten mit Chili, Bambussprossen und grünen Bohnen in Curry- Sauce, scharf (Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Ca. MUC Caric_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Tintenfisch, gebraten mit Chili, Bambussprossen und grünen Bohnen in Curry- Sauce, scharf (Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige geröstete Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige geröstete Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem vietnamesischen Gemüse (flambiert serviert auf einer Gusseisenplatte) (Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige geröstete Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €16,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem vietnamesischen Gemüse (flambiert serviert auf einer Gusseisenplatte) (Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Sauer Lady“_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Sauer Lady“_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hühnerbrust gebraten nach vietnamesischer Art in süß saurer Sauce(Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  “Sauer Lady“_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hühnerbrust gebraten nach vietnamesischer Art in süß saurer Sauce(Beilage Reis)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   Gebratenes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   Gebratenes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  nach vietnamesischer Art_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C62" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                   Gebratenes Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  nach vietnamesischer Art_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="C62" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop-Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop-Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schweinefleisch (verschiedene Gemüsesorten)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop-Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schweinefleisch (verschiedene Gemüsesorten)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln und Bambussprossen, Karotten Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln und Bambussprossen, Karotten Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Schweinefleisch Paprika, Champignons Bambussprossen und Karotten, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Schweinefleisch Paprika, Champignons Bambussprossen und Karotten, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Champignons Karotten, Tomate in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Champignons Karotten, Tomate in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Bambussprossen und Schitagen Pilzen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Bambussprossen und Schitagen Pilzen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Champignons, Bambussprossen und Karotten in Curry – Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Champignons, Bambussprossen und Karotten in Curry – Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Paprika, Broccoli, Karotten, Bambussprossen in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Schweinefleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Paprika, Broccoli, Karotten, Bambussprossen in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Schweinewürfel_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Schweinewürfel_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Schweinewürfel_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Rindfleisch (verschiedene Gemüsesorten)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Rindfleisch (verschiedene Gemüsesorten)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Karotten, Sojabohnen, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Karotten, Sojabohnen, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Rindfleisch mit Paprika, Karotten, Champignons, Bambussprossen, Cashewkerne, , leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Rindfleisch mit Paprika, Karotten, Champignons, Bambussprossen, Cashewkerne, , leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Karotten,  in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Karotten,  in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <f t="shared" ref="A76:A139" si="6">SUBSTITUTE($A$1,"dishName",D76)</f>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" ref="A76:A139" si="9">SUBSTITUTE($A$1,"dishName",D76)</f>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" ref="B76:B139" si="7">SUBSTITUTE($A76,"dishDisc",E76)</f>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" ref="B76:B139" si="10">SUBSTITUTE($A76,"dishDisc",E76)</f>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitage Pilzen, Karotten, Bambussprossen, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" ref="C76:C139" si="8">SUBSTITUTE($B76,"dishPrice",F76)</f>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C76:C139" si="11">SUBSTITUTE($B76,"dishPrice",F76)</f>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitage Pilzen, Karotten, Bambussprossen, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Curry Sauce  Champignons, Bambussprossen, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Curry Sauce  Champignons, Bambussprossen, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Broccoli, Bambussprossen in Barbecue Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C79" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Rindfleisch_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,80_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Broccoli, Bambussprossen in Barbecue Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="23" x14ac:dyDescent="0.25">
+      <c r="C79" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hühnerbrust (verschiedene Gemüsesorte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hühnerbrust (verschiedene Gemüsesorte)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Karotten, Bambussprossen, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Karotten, Bambussprossen, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Karotten, Champignon, Bambussprossen, Cashewkerne, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Karotten, Champignon, Bambussprossen, Cashewkerne, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Annans, Karotten, Bambussprossen, Champignons, Tomaten in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Annans, Karotten, Bambussprossen, Champignons, Tomaten in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen Pilzen, Karotten, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen Pilzen, Karotten, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Karotten, Champignons, Bambussprossen in Curry Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Karotten, Champignons, Bambussprossen in Curry Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Bambussprossen, Karotten, Broccoli in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C87" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hühnerbrust_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €11,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Bambussprossen, Karotten, Broccoli in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="C87" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+    </row>
+    <row r="88" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln (verschiedenen Gemüse)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50 _x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln (verschiedenen Gemüse)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne in Kung Bao Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne in Kung Bao Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Karotten, Tomaten, Champignon in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Bambussprossen, Karotten, Tomaten, Champignon in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen Pilzen (verschiedene Gemüsen)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen Pilzen (verschiedene Gemüsen)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Champignon, Karotten, Bambussprossen in Curry Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Champignon, Karotten, Bambussprossen in Curry Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Broccoli, Bambussprosse in Barbecue Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €14,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Broccoli, Bambussprosse in Barbecue Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C95" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas in süß saurer Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="23" x14ac:dyDescent="0.25">
+      <c r="C95" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+    </row>
+    <row r="96" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben (mit verschiedenem Gemüse)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Chop- Suey_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €17,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben (mit verschiedenem Gemüse)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hummerkrabben, Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Kung Bao_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €17,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Hummerkrabben, Paprika, Champignons, Karotten, Bambussprossen, Cashewkerne, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Karotten, Bambussprossen, Tomaten in süß saure Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €17,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Karotten, Bambussprossen, Tomaten in süß saure Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Karotten, Bambussprossen in Curry Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €17,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Karotten, Bambussprossen in Curry Sauce_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Paprika, Broccoli, Karotten, Bambussprossen in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Hummerkrabben_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €17,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ananas, Paprika, Broccoli, Karotten, Bambussprossen in Barbecue Sauce, leicht scharf_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Bambussprossen, Karotten, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Morcheln, Bambussprossen, Karotten, Sojabohnen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen- Pilzen, Karotten, Sojabohnen, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C103" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Panierte Fischfilet_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Schitagen- Pilzen, Karotten, Sojabohnen, Bambussprossen_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="C103" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+    </row>
+    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem  Nudeln_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenem  Nudeln_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenen Reis_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Hähnchen_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit gebratenen Reis_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Nudeln_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Nudeln_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit  gebratene Reis_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Knusprige Ente_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  13,90_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit  gebratene Reis_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nasik Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nasik Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (leicht scharf)( Reis gebraten mit Hühnerfleisch, Shrimps und Curry)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nasik Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (leicht scharf)( Reis gebraten mit Hühnerfleisch, Shrimps und Curry)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedene Fleischsorten (Schwein, Rind, Huhn oder nur Hühnerfleisch)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedene Fleischsorten (Schwein, Rind, Huhn oder nur Hühnerfleisch)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Shrimps_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Shrimps_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis, gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €15,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bami Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bami Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (leicht scharf) (Nudeln gebraten mit Hühnerfleisch, Shrimps und Curry)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Bami Goren_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  (leicht scharf) (Nudeln gebraten mit Hühnerfleisch, Shrimps und Curry)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedenen Fleischsorten (Schwein, Rind, Huhn oder nur Hühnerfleisch)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €10,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit verschiedenen Fleischsorten (Schwein, Rind, Huhn oder nur Hühnerfleisch)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln  gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln  gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Shrimps_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln  gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €12,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Shrimps_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €15,50_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Hummerkrabben_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ei  (nur als Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D116" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Reis gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,60_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ei  (nur als Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ei (nur als Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Nudeln gebraten_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €4,60_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  mit Ei (nur als Beilage)_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="B118" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="C118" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D119" s="6" t="s">
@@ -3594,15 +4642,15 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D120" s="6" t="s">
@@ -3617,15 +4665,15 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D121" s="6" t="s">
@@ -3640,15 +4688,15 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D122" s="6" t="s">
@@ -3663,15 +4711,15 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -3686,15 +4734,15 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D124" s="6" t="s">
@@ -3709,15 +4757,15 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D125" s="6" t="s">
@@ -3732,15 +4780,15 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3755,15 +4803,15 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -3778,15 +4826,15 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D128" s="6" t="s">
@@ -3801,15 +4849,15 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -3824,15 +4872,15 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -3847,15 +4895,15 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D131" s="6" t="s">
@@ -3870,15 +4918,15 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -3893,15 +4941,15 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D133" s="6" t="s">
@@ -3916,15 +4964,15 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D134" s="6" t="s">
@@ -3939,15 +4987,15 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D135" s="6" t="s">
@@ -3962,15 +5010,15 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D136" s="6" t="s">
@@ -3985,15 +5033,15 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D137" s="6" t="s">
@@ -4008,15 +5056,15 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -4031,15 +5079,15 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D139" s="6" t="s">
@@ -4054,15 +5102,15 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
-        <f t="shared" ref="A140:A154" si="9">SUBSTITUTE($A$1,"dishName",D140)</f>
+        <f t="shared" ref="A140:A154" si="12">SUBSTITUTE($A$1,"dishName",D140)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" ref="B140:B154" si="10">SUBSTITUTE($A140,"dishDisc",E140)</f>
+        <f t="shared" ref="B140:B154" si="13">SUBSTITUTE($A140,"dishDisc",E140)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" ref="C140:C154" si="11">SUBSTITUTE($B140,"dishPrice",F140)</f>
+        <f t="shared" ref="C140:C154" si="14">SUBSTITUTE($B140,"dishPrice",F140)</f>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D140" s="6" t="s">
@@ -4077,15 +5125,15 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D141" s="6" t="s">
@@ -4100,15 +5148,15 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D142" s="6" t="s">
@@ -4123,15 +5171,15 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D143" s="6" t="s">
@@ -4146,15 +5194,15 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D144" s="6" t="s">
@@ -4169,15 +5217,15 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D145" s="6" t="s">
@@ -4192,15 +5240,15 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D146" s="6" t="s">
@@ -4215,15 +5263,15 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D147" s="6" t="s">
@@ -4238,15 +5286,15 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D148" s="6" t="s">
@@ -4261,15 +5309,15 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D149" s="6" t="s">
@@ -4284,15 +5332,15 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D150" s="6" t="s">
@@ -4307,15 +5355,15 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D151" s="6" t="s">
@@ -4330,15 +5378,15 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D152" s="6" t="s">
@@ -4353,15 +5401,15 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D153" s="6" t="s">
@@ -4376,15 +5424,15 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  dishDisc_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  dishPrice_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">              &lt;li&gt;_x000D_                &lt;section class="dish_name"&gt;_x000D_                  Gemüse_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_price"&gt;_x000D_                  €3,00_x000D_                &lt;/section&gt;_x000D_                &lt;section class="dish_desc"&gt;_x000D_                  Suppe_x000D_                &lt;/section&gt;_x000D_              &lt;/li&gt;</v>
       </c>
       <c r="D154" s="6" t="s">
